--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H2">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I2">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J2">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.07006731853707</v>
+        <v>1.720171333333333</v>
       </c>
       <c r="N2">
-        <v>4.07006731853707</v>
+        <v>5.160514</v>
       </c>
       <c r="O2">
-        <v>0.579037915209188</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="P2">
-        <v>0.579037915209188</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="Q2">
-        <v>28.71489205224873</v>
+        <v>12.69362763681133</v>
       </c>
       <c r="R2">
-        <v>28.71489205224873</v>
+        <v>114.242648731302</v>
       </c>
       <c r="S2">
-        <v>0.1550714693907184</v>
+        <v>0.05382475313071392</v>
       </c>
       <c r="T2">
-        <v>0.1550714693907184</v>
+        <v>0.05382475313071391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H3">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I3">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J3">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.95894962773092</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N3">
-        <v>2.95894962773092</v>
+        <v>12.229166</v>
       </c>
       <c r="O3">
-        <v>0.420962084790812</v>
+        <v>0.464817562438416</v>
       </c>
       <c r="P3">
-        <v>0.420962084790812</v>
+        <v>0.464817562438416</v>
       </c>
       <c r="Q3">
-        <v>20.87580192134875</v>
+        <v>30.08081743654866</v>
       </c>
       <c r="R3">
-        <v>20.87580192134875</v>
+        <v>270.727356928938</v>
       </c>
       <c r="S3">
-        <v>0.1127373654326386</v>
+        <v>0.1275516045387185</v>
       </c>
       <c r="T3">
-        <v>0.1127373654326386</v>
+        <v>0.1275516045387184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.1389875660213</v>
+        <v>7.379281</v>
       </c>
       <c r="H4">
-        <v>13.1389875660213</v>
+        <v>22.137843</v>
       </c>
       <c r="I4">
-        <v>0.4987480447421117</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J4">
-        <v>0.4987480447421117</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.07006731853707</v>
+        <v>2.973308</v>
       </c>
       <c r="N4">
-        <v>4.07006731853707</v>
+        <v>8.919924</v>
       </c>
       <c r="O4">
-        <v>0.579037915209188</v>
+        <v>0.3390368019222182</v>
       </c>
       <c r="P4">
-        <v>0.579037915209188</v>
+        <v>0.3390368019222182</v>
       </c>
       <c r="Q4">
-        <v>53.47656389112822</v>
+        <v>21.940875231548</v>
       </c>
       <c r="R4">
-        <v>53.47656389112822</v>
+        <v>197.467877083932</v>
       </c>
       <c r="S4">
-        <v>0.2887940280421312</v>
+        <v>0.09303583078056377</v>
       </c>
       <c r="T4">
-        <v>0.2887940280421312</v>
+        <v>0.09303583078056374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H5">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I5">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J5">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.95894962773092</v>
+        <v>1.720171333333333</v>
       </c>
       <c r="N5">
-        <v>2.95894962773092</v>
+        <v>5.160514</v>
       </c>
       <c r="O5">
-        <v>0.420962084790812</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="P5">
-        <v>0.420962084790812</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="Q5">
-        <v>38.87760236723992</v>
+        <v>22.87493701382311</v>
       </c>
       <c r="R5">
-        <v>38.87760236723992</v>
+        <v>205.874433124408</v>
       </c>
       <c r="S5">
-        <v>0.2099540166999805</v>
+        <v>0.09699653029675201</v>
       </c>
       <c r="T5">
-        <v>0.2099540166999805</v>
+        <v>0.096996530296752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.66480271275972</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H6">
-        <v>1.66480271275972</v>
+        <v>39.894172</v>
       </c>
       <c r="I6">
-        <v>0.0631949070427279</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J6">
-        <v>0.0631949070427279</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.07006731853707</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N6">
-        <v>4.07006731853707</v>
+        <v>12.229166</v>
       </c>
       <c r="O6">
-        <v>0.579037915209188</v>
+        <v>0.464817562438416</v>
       </c>
       <c r="P6">
-        <v>0.579037915209188</v>
+        <v>0.464817562438416</v>
       </c>
       <c r="Q6">
-        <v>6.775859113015194</v>
+        <v>54.20805020228355</v>
       </c>
       <c r="R6">
-        <v>6.775859113015194</v>
+        <v>487.8724518205519</v>
       </c>
       <c r="S6">
-        <v>0.0365922472258596</v>
+        <v>0.2298582409471246</v>
       </c>
       <c r="T6">
-        <v>0.0365922472258596</v>
+        <v>0.2298582409471245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.66480271275972</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H7">
-        <v>1.66480271275972</v>
+        <v>39.894172</v>
       </c>
       <c r="I7">
-        <v>0.0631949070427279</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J7">
-        <v>0.0631949070427279</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.95894962773092</v>
+        <v>2.973308</v>
       </c>
       <c r="N7">
-        <v>2.95894962773092</v>
+        <v>8.919924</v>
       </c>
       <c r="O7">
-        <v>0.420962084790812</v>
+        <v>0.3390368019222182</v>
       </c>
       <c r="P7">
-        <v>0.420962084790812</v>
+        <v>0.3390368019222182</v>
       </c>
       <c r="Q7">
-        <v>4.9260673671658</v>
+        <v>39.53922025365866</v>
       </c>
       <c r="R7">
-        <v>4.9260673671658</v>
+        <v>355.852982282928</v>
       </c>
       <c r="S7">
-        <v>0.0266026598168683</v>
+        <v>0.1676580430768574</v>
       </c>
       <c r="T7">
-        <v>0.0266026598168683</v>
+        <v>0.1676580430768573</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.48500837742407</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H8">
-        <v>4.48500837742407</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I8">
-        <v>0.1702482133918034</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J8">
-        <v>0.1702482133918034</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.07006731853707</v>
+        <v>1.720171333333333</v>
       </c>
       <c r="N8">
-        <v>4.07006731853707</v>
+        <v>5.160514</v>
       </c>
       <c r="O8">
-        <v>0.579037915209188</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="P8">
-        <v>0.579037915209188</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="Q8">
-        <v>18.25428602031868</v>
+        <v>2.878387921246222</v>
       </c>
       <c r="R8">
-        <v>18.25428602031868</v>
+        <v>25.905491291216</v>
       </c>
       <c r="S8">
-        <v>0.09858017055047881</v>
+        <v>0.01220522010793954</v>
       </c>
       <c r="T8">
-        <v>0.09858017055047881</v>
+        <v>0.01220522010793954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.673314666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.019944000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.06222529534320158</v>
+      </c>
+      <c r="J9">
+        <v>0.06222529534320156</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.076388666666666</v>
+      </c>
+      <c r="N9">
+        <v>12.229166</v>
+      </c>
+      <c r="O9">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="P9">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="Q9">
+        <v>6.821080942967112</v>
+      </c>
+      <c r="R9">
+        <v>61.389728486704</v>
+      </c>
+      <c r="S9">
+        <v>0.02892341010343748</v>
+      </c>
+      <c r="T9">
+        <v>0.02892341010343747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.48500837742407</v>
-      </c>
-      <c r="H9">
-        <v>4.48500837742407</v>
-      </c>
-      <c r="I9">
-        <v>0.1702482133918034</v>
-      </c>
-      <c r="J9">
-        <v>0.1702482133918034</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.95894962773092</v>
-      </c>
-      <c r="N9">
-        <v>2.95894962773092</v>
-      </c>
-      <c r="O9">
-        <v>0.420962084790812</v>
-      </c>
-      <c r="P9">
-        <v>0.420962084790812</v>
-      </c>
-      <c r="Q9">
-        <v>13.27091386874901</v>
-      </c>
-      <c r="R9">
-        <v>13.27091386874901</v>
-      </c>
-      <c r="S9">
-        <v>0.07166804284132459</v>
-      </c>
-      <c r="T9">
-        <v>0.07166804284132459</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.673314666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.019944000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.06222529534320158</v>
+      </c>
+      <c r="J10">
+        <v>0.06222529534320156</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.973308</v>
+      </c>
+      <c r="N10">
+        <v>8.919924</v>
+      </c>
+      <c r="O10">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="P10">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="Q10">
+        <v>4.975279884917334</v>
+      </c>
+      <c r="R10">
+        <v>44.777518964256</v>
+      </c>
+      <c r="S10">
+        <v>0.02109666513182456</v>
+      </c>
+      <c r="T10">
+        <v>0.02109666513182456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.540576</v>
+      </c>
+      <c r="H11">
+        <v>13.621728</v>
+      </c>
+      <c r="I11">
+        <v>0.1688497018860685</v>
+      </c>
+      <c r="J11">
+        <v>0.1688497018860685</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.720171333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.160514</v>
+      </c>
+      <c r="O11">
+        <v>0.1961456356393658</v>
+      </c>
+      <c r="P11">
+        <v>0.1961456356393658</v>
+      </c>
+      <c r="Q11">
+        <v>7.810568672021333</v>
+      </c>
+      <c r="R11">
+        <v>70.29511804819199</v>
+      </c>
+      <c r="S11">
+        <v>0.03311913210396033</v>
+      </c>
+      <c r="T11">
+        <v>0.03311913210396032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.540576</v>
+      </c>
+      <c r="H12">
+        <v>13.621728</v>
+      </c>
+      <c r="I12">
+        <v>0.1688497018860685</v>
+      </c>
+      <c r="J12">
+        <v>0.1688497018860685</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.076388666666666</v>
+      </c>
+      <c r="N12">
+        <v>12.229166</v>
+      </c>
+      <c r="O12">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="P12">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="Q12">
+        <v>18.50915254653867</v>
+      </c>
+      <c r="R12">
+        <v>166.582372918848</v>
+      </c>
+      <c r="S12">
+        <v>0.07848430684913558</v>
+      </c>
+      <c r="T12">
+        <v>0.07848430684913557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.540576</v>
+      </c>
+      <c r="H13">
+        <v>13.621728</v>
+      </c>
+      <c r="I13">
+        <v>0.1688497018860685</v>
+      </c>
+      <c r="J13">
+        <v>0.1688497018860685</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.973308</v>
+      </c>
+      <c r="N13">
+        <v>8.919924</v>
+      </c>
+      <c r="O13">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="P13">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="Q13">
+        <v>13.500530945408</v>
+      </c>
+      <c r="R13">
+        <v>121.504778508672</v>
+      </c>
+      <c r="S13">
+        <v>0.05724626293297261</v>
+      </c>
+      <c r="T13">
+        <v>0.05724626293297259</v>
       </c>
     </row>
   </sheetData>
